--- a/Turma Maio 2017/Aula 10 - Prova/Prova Pizzaria Resposta.xlsx
+++ b/Turma Maio 2017/Aula 10 - Prova/Prova Pizzaria Resposta.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8610"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7545"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -134,11 +134,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="0000"/>
-    <numFmt numFmtId="167" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="0_);\(0\)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0000"/>
+    <numFmt numFmtId="166" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="0_);\(0\)"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -523,6 +523,129 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="7" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="7" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="4" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="2" borderId="15" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="2" borderId="15" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="2" borderId="16" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="7" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="4" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="3" borderId="17" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="4" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="4" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="4" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -535,15 +658,6 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -562,125 +676,11 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="7" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="7" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="4" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="2" borderId="15" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="2" borderId="15" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="2" borderId="16" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="7" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="4" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="4" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="3" borderId="17" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="4" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="4" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="4" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="7" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1012,10 +1012,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:U43"/>
+  <dimension ref="A2:WWC43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -1027,19 +1027,19 @@
     <col min="5" max="5" width="6.25" style="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1" customWidth="1"/>
     <col min="7" max="7" width="6.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="15" customWidth="1"/>
-    <col min="9" max="9" width="12.5" style="16" customWidth="1"/>
-    <col min="10" max="10" width="14.25" style="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5" style="16" customWidth="1"/>
-    <col min="12" max="12" width="10" style="16" customWidth="1"/>
-    <col min="13" max="13" width="10" style="15" customWidth="1"/>
-    <col min="14" max="14" width="10" style="16" customWidth="1"/>
-    <col min="15" max="15" width="10" style="15" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="5" customWidth="1"/>
+    <col min="9" max="9" width="12.5" style="6" customWidth="1"/>
+    <col min="10" max="10" width="14.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5" style="6" customWidth="1"/>
+    <col min="12" max="12" width="10" style="6" customWidth="1"/>
+    <col min="13" max="13" width="10" style="5" customWidth="1"/>
+    <col min="14" max="14" width="10" style="6" customWidth="1"/>
+    <col min="15" max="15" width="10" style="5" customWidth="1"/>
     <col min="16" max="16" width="2.5" style="1" customWidth="1"/>
     <col min="17" max="17" width="10.375" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="5.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.75" style="16" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.5" style="6" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="2.5" style="1" customWidth="1"/>
     <col min="22" max="256" width="10" style="1" hidden="1"/>
     <col min="257" max="257" width="2.5" style="1" customWidth="1"/>
@@ -2053,2012 +2053,2012 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="E2" s="26" t="s">
+      <c r="C2" s="44"/>
+      <c r="E2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="30"/>
-      <c r="Q2" s="38" t="s">
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="20"/>
+      <c r="Q2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="38"/>
-      <c r="S2" s="39"/>
-      <c r="T2" s="39"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
     </row>
     <row r="3" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="E3" s="17" t="s">
+      <c r="C3" s="46"/>
+      <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="J3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="19" t="s">
+      <c r="L3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="18" t="s">
+      <c r="M3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="19" t="s">
+      <c r="N3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="19" t="s">
+      <c r="O3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="31" t="s">
+      <c r="Q3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="R3" s="31" t="s">
+      <c r="R3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="S3" s="32" t="s">
+      <c r="S3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="T3" s="32" t="s">
+      <c r="T3" s="22" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="50">
+      <c r="C4" s="36">
         <v>20</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="10">
         <f xml:space="preserve"> IF(H4 = "", "-", $C$21)</f>
         <v>1</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="11">
         <f ca="1">TODAY()</f>
-        <v>42916</v>
-      </c>
-      <c r="G4" s="22">
+        <v>42917</v>
+      </c>
+      <c r="G4" s="12">
         <v>0.89549099046215774</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="24">
+      <c r="I4" s="14">
         <f>VLOOKUP(H4,$B$4:$C$11,2,FALSE)</f>
         <v>16</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="J4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="24">
+      <c r="K4" s="14">
         <f>IFERROR(VLOOKUP(J4,$B$4:$C$11,2,FALSE),0)</f>
         <v>20</v>
       </c>
-      <c r="L4" s="24">
+      <c r="L4" s="14">
         <f>IF(I4&gt;K4,I4,K4)</f>
         <v>20</v>
       </c>
-      <c r="M4" s="23" t="s">
+      <c r="M4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="24">
+      <c r="N4" s="14">
         <f>IFERROR(VLOOKUP(M4,$B$13:$C$16,2,TRUE),0)</f>
         <v>4</v>
       </c>
-      <c r="O4" s="25">
+      <c r="O4" s="15">
         <f>L4+N4+$C$19</f>
         <v>25.5</v>
       </c>
-      <c r="Q4" s="33">
+      <c r="Q4" s="23">
         <f ca="1">TODAY()</f>
-        <v>42916</v>
-      </c>
-      <c r="R4" s="34">
+        <v>42917</v>
+      </c>
+      <c r="R4" s="24">
         <v>0.90776102405489034</v>
       </c>
-      <c r="S4" s="35">
+      <c r="S4" s="25">
         <f>(R4-G4)*1440</f>
         <v>17.668848373534942</v>
       </c>
-      <c r="T4" s="36">
+      <c r="T4" s="26">
         <f>IF(S4&gt;$C$20,0,O4)</f>
         <v>25.5</v>
       </c>
     </row>
     <row r="5" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="51">
+      <c r="C5" s="37">
         <v>16</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="10">
         <f xml:space="preserve"> IF(H5 = "", "-", MAX(E$4:E4) + 1)</f>
         <v>2</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="11">
         <f ca="1">TODAY()</f>
-        <v>42916</v>
-      </c>
-      <c r="G5" s="22">
+        <v>42917</v>
+      </c>
+      <c r="G5" s="12">
         <v>0.98662037037037031</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="H5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="24">
+      <c r="I5" s="14">
         <f t="shared" ref="I5:I29" si="0">VLOOKUP(H5,$B$4:$C$11,2,FALSE)</f>
         <v>18</v>
       </c>
-      <c r="J5" s="23" t="s">
+      <c r="J5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="24">
+      <c r="K5" s="14">
         <f t="shared" ref="K5:K29" si="1">IFERROR(VLOOKUP(J5,$B$4:$C$11,2,FALSE),0)</f>
         <v>18</v>
       </c>
-      <c r="L5" s="24">
+      <c r="L5" s="14">
         <f t="shared" ref="L5:L29" si="2">IF(I5&gt;K5,I5,K5)</f>
         <v>18</v>
       </c>
-      <c r="M5" s="23" t="s">
+      <c r="M5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="24">
+      <c r="N5" s="14">
         <f t="shared" ref="N5:N29" si="3">IFERROR(VLOOKUP(M5,$B$13:$C$16,2,TRUE),0)</f>
         <v>3.5</v>
       </c>
-      <c r="O5" s="25">
+      <c r="O5" s="15">
         <f t="shared" ref="O5:O29" si="4">L5+N5+$C$19</f>
         <v>23</v>
       </c>
-      <c r="Q5" s="33">
+      <c r="Q5" s="23">
         <f t="shared" ref="Q5:Q29" ca="1" si="5">TODAY()</f>
-        <v>42916</v>
-      </c>
-      <c r="R5" s="34">
+        <v>42917</v>
+      </c>
+      <c r="R5" s="24">
         <v>1</v>
       </c>
-      <c r="S5" s="35">
+      <c r="S5" s="25">
         <f t="shared" ref="S5:S29" si="6">(R5-G5)*1440</f>
         <v>19.266666666666747</v>
       </c>
-      <c r="T5" s="36">
+      <c r="T5" s="26">
         <f t="shared" ref="T5:T29" si="7">IF(S5&gt;$C$20,0,O5)</f>
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="51">
+      <c r="C6" s="37">
         <v>18</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="10">
         <f xml:space="preserve"> IF(H6 = "", "-", MAX(E$4:E5) + 1)</f>
         <v>3</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="11">
         <f t="shared" ref="F6:F29" ca="1" si="8">TODAY()</f>
-        <v>42916</v>
-      </c>
-      <c r="G6" s="22">
+        <v>42917</v>
+      </c>
+      <c r="G6" s="12">
         <v>0.77787336844758515</v>
       </c>
-      <c r="H6" s="23" t="s">
+      <c r="H6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="24">
+      <c r="I6" s="14">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="J6" s="23"/>
-      <c r="K6" s="24">
+      <c r="J6" s="13"/>
+      <c r="K6" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L6" s="24">
+      <c r="L6" s="14">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="M6" s="23" t="s">
+      <c r="M6" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="N6" s="24">
+      <c r="N6" s="14">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="O6" s="25">
+      <c r="O6" s="15">
         <f t="shared" si="4"/>
         <v>21.5</v>
       </c>
-      <c r="Q6" s="33">
+      <c r="Q6" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>42916</v>
-      </c>
-      <c r="R6" s="34">
+        <v>42917</v>
+      </c>
+      <c r="R6" s="24">
         <v>0.79650250185568228</v>
       </c>
-      <c r="S6" s="35">
+      <c r="S6" s="25">
         <f t="shared" si="6"/>
         <v>26.825952107659869</v>
       </c>
-      <c r="T6" s="36">
+      <c r="T6" s="26">
         <f t="shared" si="7"/>
         <v>21.5</v>
       </c>
     </row>
     <row r="7" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="51">
+      <c r="C7" s="37">
         <v>18</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="10">
         <f xml:space="preserve"> IF(H7 = "", "-", MAX(E$4:E6) + 1)</f>
         <v>4</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="11">
         <f t="shared" ca="1" si="8"/>
-        <v>42916</v>
-      </c>
-      <c r="G7" s="22">
+        <v>42917</v>
+      </c>
+      <c r="G7" s="12">
         <v>0.87015142142877444</v>
       </c>
-      <c r="H7" s="23" t="s">
+      <c r="H7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="24">
+      <c r="I7" s="14">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="J7" s="23"/>
-      <c r="K7" s="24">
+      <c r="J7" s="13"/>
+      <c r="K7" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L7" s="24">
+      <c r="L7" s="14">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="M7" s="23" t="s">
+      <c r="M7" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="N7" s="24">
+      <c r="N7" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O7" s="25">
+      <c r="O7" s="15">
         <f t="shared" si="4"/>
         <v>17.5</v>
       </c>
-      <c r="Q7" s="33">
+      <c r="Q7" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>42916</v>
-      </c>
-      <c r="R7" s="34">
+        <v>42917</v>
+      </c>
+      <c r="R7" s="24">
         <v>0.88549577612303076</v>
       </c>
-      <c r="S7" s="35">
+      <c r="S7" s="25">
         <f t="shared" si="6"/>
         <v>22.095870759729106</v>
       </c>
-      <c r="T7" s="36">
+      <c r="T7" s="26">
         <f t="shared" si="7"/>
         <v>17.5</v>
       </c>
     </row>
     <row r="8" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="51">
+      <c r="C8" s="37">
         <v>18</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="10">
         <f xml:space="preserve"> IF(H8 = "", "-", MAX(E$4:E7) + 1)</f>
         <v>5</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="11">
         <f t="shared" ca="1" si="8"/>
-        <v>42916</v>
-      </c>
-      <c r="G8" s="22">
+        <v>42917</v>
+      </c>
+      <c r="G8" s="12">
         <v>0.81868249649076974</v>
       </c>
-      <c r="H8" s="23" t="s">
+      <c r="H8" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="24">
+      <c r="I8" s="14">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="J8" s="23" t="s">
+      <c r="J8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="24">
+      <c r="K8" s="14">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="L8" s="24">
+      <c r="L8" s="14">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="M8" s="23" t="s">
+      <c r="M8" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="N8" s="24">
+      <c r="N8" s="14">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="O8" s="25">
+      <c r="O8" s="15">
         <f t="shared" si="4"/>
         <v>23.5</v>
       </c>
-      <c r="Q8" s="33">
+      <c r="Q8" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>42916</v>
-      </c>
-      <c r="R8" s="34">
+        <v>42917</v>
+      </c>
+      <c r="R8" s="24">
         <v>0.83072831029599914</v>
       </c>
-      <c r="S8" s="35">
+      <c r="S8" s="25">
         <f t="shared" si="6"/>
         <v>17.345971879530335</v>
       </c>
-      <c r="T8" s="36">
+      <c r="T8" s="26">
         <f t="shared" si="7"/>
         <v>23.5</v>
       </c>
     </row>
     <row r="9" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="51">
+      <c r="C9" s="37">
         <v>16</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="10">
         <f xml:space="preserve"> IF(H9 = "", "-", MAX(E$4:E8) + 1)</f>
         <v>6</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="11">
         <f t="shared" ca="1" si="8"/>
-        <v>42916</v>
-      </c>
-      <c r="G9" s="22">
+        <v>42917</v>
+      </c>
+      <c r="G9" s="12">
         <v>0.95833333333333337</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="H9" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="24">
+      <c r="I9" s="14">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="J9" s="23"/>
-      <c r="K9" s="24">
+      <c r="J9" s="13"/>
+      <c r="K9" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L9" s="24">
+      <c r="L9" s="14">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="M9" s="23" t="s">
+      <c r="M9" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="N9" s="24">
+      <c r="N9" s="14">
         <f t="shared" si="3"/>
         <v>3.5</v>
       </c>
-      <c r="O9" s="25">
+      <c r="O9" s="15">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="Q9" s="33">
+      <c r="Q9" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>42916</v>
-      </c>
-      <c r="R9" s="34">
+        <v>42917</v>
+      </c>
+      <c r="R9" s="24">
         <v>0.99930555555555556</v>
       </c>
-      <c r="S9" s="35">
+      <c r="S9" s="25">
         <f t="shared" si="6"/>
         <v>58.99999999999995</v>
       </c>
-      <c r="T9" s="36">
+      <c r="T9" s="26">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="51">
+      <c r="C10" s="37">
         <v>20</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="10">
         <f xml:space="preserve"> IF(H10 = "", "-", MAX(E$4:E9) + 1)</f>
         <v>7</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="11">
         <f t="shared" ca="1" si="8"/>
-        <v>42916</v>
-      </c>
-      <c r="G10" s="22">
+        <v>42917</v>
+      </c>
+      <c r="G10" s="12">
         <v>0.78804228414637745</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="H10" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="24">
+      <c r="I10" s="14">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="J10" s="23" t="s">
+      <c r="J10" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="24">
+      <c r="K10" s="14">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="L10" s="24">
+      <c r="L10" s="14">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="M10" s="23" t="s">
+      <c r="M10" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="N10" s="24">
+      <c r="N10" s="14">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="O10" s="25">
+      <c r="O10" s="15">
         <f t="shared" si="4"/>
         <v>23.5</v>
       </c>
-      <c r="Q10" s="33">
+      <c r="Q10" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>42916</v>
-      </c>
-      <c r="R10" s="34">
+        <v>42917</v>
+      </c>
+      <c r="R10" s="24">
         <v>0.80103871310267361</v>
       </c>
-      <c r="S10" s="35">
+      <c r="S10" s="25">
         <f t="shared" si="6"/>
         <v>18.714857697066467</v>
       </c>
-      <c r="T10" s="36">
+      <c r="T10" s="26">
         <f t="shared" si="7"/>
         <v>23.5</v>
       </c>
     </row>
     <row r="11" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="52">
+      <c r="C11" s="38">
         <v>20</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="10">
         <f xml:space="preserve"> IF(H11 = "", "-", MAX(E$4:E10) + 1)</f>
         <v>8</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="11">
         <f t="shared" ca="1" si="8"/>
-        <v>42916</v>
-      </c>
-      <c r="G11" s="22">
+        <v>42917</v>
+      </c>
+      <c r="G11" s="12">
         <v>0.78755643724726587</v>
       </c>
-      <c r="H11" s="23" t="s">
+      <c r="H11" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="24">
+      <c r="I11" s="14">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="J11" s="23" t="s">
+      <c r="J11" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="K11" s="24">
+      <c r="K11" s="14">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="L11" s="24">
+      <c r="L11" s="14">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="M11" s="23" t="s">
+      <c r="M11" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="N11" s="24">
+      <c r="N11" s="14">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="O11" s="25">
+      <c r="O11" s="15">
         <f t="shared" si="4"/>
         <v>23.5</v>
       </c>
-      <c r="Q11" s="33">
+      <c r="Q11" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>42916</v>
-      </c>
-      <c r="R11" s="34">
+        <v>42917</v>
+      </c>
+      <c r="R11" s="24">
         <v>0.80077951454671004</v>
       </c>
-      <c r="S11" s="35">
+      <c r="S11" s="25">
         <f t="shared" si="6"/>
         <v>19.041231311199596</v>
       </c>
-      <c r="T11" s="36">
+      <c r="T11" s="26">
         <f t="shared" si="7"/>
         <v>23.5</v>
       </c>
     </row>
     <row r="12" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="E12" s="20">
+      <c r="C12" s="48"/>
+      <c r="E12" s="10">
         <f xml:space="preserve"> IF(H12 = "", "-", MAX(E$4:E11) + 1)</f>
         <v>9</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="11">
         <f t="shared" ca="1" si="8"/>
-        <v>42916</v>
-      </c>
-      <c r="G12" s="22">
+        <v>42917</v>
+      </c>
+      <c r="G12" s="12">
         <v>0.87768623916726463</v>
       </c>
-      <c r="H12" s="23" t="s">
+      <c r="H12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="24">
+      <c r="I12" s="14">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="J12" s="23"/>
-      <c r="K12" s="24">
+      <c r="J12" s="13"/>
+      <c r="K12" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L12" s="24">
+      <c r="L12" s="14">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="M12" s="23" t="s">
+      <c r="M12" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="N12" s="24">
+      <c r="N12" s="14">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="O12" s="25">
+      <c r="O12" s="15">
         <f t="shared" si="4"/>
         <v>23.5</v>
       </c>
-      <c r="Q12" s="33">
+      <c r="Q12" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>42916</v>
-      </c>
-      <c r="R12" s="34">
+        <v>42917</v>
+      </c>
+      <c r="R12" s="24">
         <v>0.89505517678990232</v>
       </c>
-      <c r="S12" s="35">
+      <c r="S12" s="25">
         <f t="shared" si="6"/>
         <v>25.011270176598277</v>
       </c>
-      <c r="T12" s="36">
+      <c r="T12" s="26">
         <f t="shared" si="7"/>
         <v>23.5</v>
       </c>
     </row>
     <row r="13" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="50">
+      <c r="C13" s="36">
         <v>4</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="10">
         <f xml:space="preserve"> IF(H13 = "", "-", MAX(E$4:E12) + 1)</f>
         <v>10</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="11">
         <f t="shared" ca="1" si="8"/>
-        <v>42916</v>
-      </c>
-      <c r="G13" s="22">
+        <v>42917</v>
+      </c>
+      <c r="G13" s="12">
         <v>0.98201056641977913</v>
       </c>
-      <c r="H13" s="23" t="s">
+      <c r="H13" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I13" s="24">
+      <c r="I13" s="14">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="J13" s="23" t="s">
+      <c r="J13" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="K13" s="24">
+      <c r="K13" s="14">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="L13" s="24">
+      <c r="L13" s="14">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="M13" s="23" t="s">
+      <c r="M13" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="N13" s="24">
+      <c r="N13" s="14">
         <f t="shared" si="3"/>
         <v>3.5</v>
       </c>
-      <c r="O13" s="25">
+      <c r="O13" s="15">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="Q13" s="33">
+      <c r="Q13" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>42916</v>
-      </c>
-      <c r="R13" s="34">
+        <v>42917</v>
+      </c>
+      <c r="R13" s="24">
         <v>0.98917947637386827</v>
       </c>
-      <c r="S13" s="35">
+      <c r="S13" s="25">
         <f t="shared" si="6"/>
         <v>10.323230333888365</v>
       </c>
-      <c r="T13" s="36">
+      <c r="T13" s="26">
         <f t="shared" si="7"/>
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="51">
+      <c r="C14" s="37">
         <v>3.5</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="10">
         <f xml:space="preserve"> IF(H14 = "", "-", MAX(E$4:E13) + 1)</f>
         <v>11</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="11">
         <f t="shared" ca="1" si="8"/>
-        <v>42916</v>
-      </c>
-      <c r="G14" s="22">
+        <v>42917</v>
+      </c>
+      <c r="G14" s="12">
         <v>0.89904934668956171</v>
       </c>
-      <c r="H14" s="23" t="s">
+      <c r="H14" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="24">
+      <c r="I14" s="14">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="J14" s="23"/>
-      <c r="K14" s="24">
+      <c r="J14" s="13"/>
+      <c r="K14" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L14" s="24">
+      <c r="L14" s="14">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="M14" s="23" t="s">
+      <c r="M14" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="N14" s="24">
+      <c r="N14" s="14">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="O14" s="25">
+      <c r="O14" s="15">
         <f t="shared" si="4"/>
         <v>25.5</v>
       </c>
-      <c r="Q14" s="33">
+      <c r="Q14" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>42916</v>
-      </c>
-      <c r="R14" s="34">
+        <v>42917</v>
+      </c>
+      <c r="R14" s="24">
         <v>0.91125522413841431</v>
       </c>
-      <c r="S14" s="35">
+      <c r="S14" s="25">
         <f t="shared" si="6"/>
         <v>17.576463526347741</v>
       </c>
-      <c r="T14" s="36">
+      <c r="T14" s="26">
         <f t="shared" si="7"/>
         <v>25.5</v>
       </c>
     </row>
     <row r="15" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="51">
+      <c r="C15" s="37">
         <v>3.2</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="10">
         <f xml:space="preserve"> IF(H15 = "", "-", MAX(E$4:E14) + 1)</f>
         <v>12</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="11">
         <f t="shared" ca="1" si="8"/>
-        <v>42916</v>
-      </c>
-      <c r="G15" s="22">
+        <v>42917</v>
+      </c>
+      <c r="G15" s="12">
         <v>0.947542336854726</v>
       </c>
-      <c r="H15" s="23" t="s">
+      <c r="H15" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="I15" s="24">
+      <c r="I15" s="14">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="J15" s="23"/>
-      <c r="K15" s="24">
+      <c r="J15" s="13"/>
+      <c r="K15" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L15" s="24">
+      <c r="L15" s="14">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="M15" s="23" t="s">
+      <c r="M15" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="N15" s="24">
+      <c r="N15" s="14">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="O15" s="25">
+      <c r="O15" s="15">
         <f t="shared" si="4"/>
         <v>21.5</v>
       </c>
-      <c r="Q15" s="33">
+      <c r="Q15" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>42916</v>
-      </c>
-      <c r="R15" s="34">
+        <v>42917</v>
+      </c>
+      <c r="R15" s="24">
         <v>0.95690548480223481</v>
       </c>
-      <c r="S15" s="35">
+      <c r="S15" s="25">
         <f t="shared" si="6"/>
         <v>13.482933044412686</v>
       </c>
-      <c r="T15" s="36">
+      <c r="T15" s="26">
         <f t="shared" si="7"/>
         <v>21.5</v>
       </c>
     </row>
     <row r="16" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="52">
+      <c r="C16" s="38">
         <v>4</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="10">
         <f xml:space="preserve"> IF(H16 = "", "-", MAX(E$4:E15) + 1)</f>
         <v>13</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="11">
         <f t="shared" ca="1" si="8"/>
-        <v>42916</v>
-      </c>
-      <c r="G16" s="22">
+        <v>42917</v>
+      </c>
+      <c r="G16" s="12">
         <v>0.79296157171019921</v>
       </c>
-      <c r="H16" s="23" t="s">
+      <c r="H16" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="24">
+      <c r="I16" s="14">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="J16" s="23" t="s">
+      <c r="J16" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="K16" s="24">
+      <c r="K16" s="14">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="L16" s="24">
+      <c r="L16" s="14">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="M16" s="23" t="s">
+      <c r="M16" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="N16" s="24">
+      <c r="N16" s="14">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="O16" s="25">
+      <c r="O16" s="15">
         <f t="shared" si="4"/>
         <v>25.5</v>
       </c>
-      <c r="Q16" s="33">
+      <c r="Q16" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>42916</v>
-      </c>
-      <c r="R16" s="34">
+        <v>42917</v>
+      </c>
+      <c r="R16" s="24">
         <v>0.80469467110084125</v>
       </c>
-      <c r="S16" s="35">
+      <c r="S16" s="25">
         <f t="shared" si="6"/>
         <v>16.895663122524542</v>
       </c>
-      <c r="T16" s="36">
+      <c r="T16" s="26">
         <f t="shared" si="7"/>
         <v>25.5</v>
       </c>
     </row>
     <row r="17" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E17" s="20">
+      <c r="E17" s="10">
         <f xml:space="preserve"> IF(H17 = "", "-", MAX(E$4:E16) + 1)</f>
         <v>14</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F17" s="11">
         <f t="shared" ca="1" si="8"/>
-        <v>42916</v>
-      </c>
-      <c r="G17" s="22">
+        <v>42917</v>
+      </c>
+      <c r="G17" s="12">
         <v>0.81939161339662592</v>
       </c>
-      <c r="H17" s="23" t="s">
+      <c r="H17" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I17" s="24">
+      <c r="I17" s="14">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="J17" s="23"/>
-      <c r="K17" s="24">
+      <c r="J17" s="13"/>
+      <c r="K17" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L17" s="24">
+      <c r="L17" s="14">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="M17" s="23" t="s">
+      <c r="M17" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="N17" s="24">
+      <c r="N17" s="14">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="O17" s="25">
+      <c r="O17" s="15">
         <f t="shared" si="4"/>
         <v>21.5</v>
       </c>
-      <c r="Q17" s="33">
+      <c r="Q17" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>42916</v>
-      </c>
-      <c r="R17" s="34">
+        <v>42917</v>
+      </c>
+      <c r="R17" s="24">
         <v>0.8340855491847432</v>
       </c>
-      <c r="S17" s="35">
+      <c r="S17" s="25">
         <f t="shared" si="6"/>
         <v>21.15926753488889</v>
       </c>
-      <c r="T17" s="36">
+      <c r="T17" s="26">
         <f t="shared" si="7"/>
         <v>21.5</v>
       </c>
     </row>
     <row r="18" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="E18" s="20">
+      <c r="C18" s="50"/>
+      <c r="E18" s="10">
         <f xml:space="preserve"> IF(H18 = "", "-", MAX(E$4:E17) + 1)</f>
         <v>15</v>
       </c>
-      <c r="F18" s="21">
+      <c r="F18" s="11">
         <f t="shared" ca="1" si="8"/>
-        <v>42916</v>
-      </c>
-      <c r="G18" s="22">
+        <v>42917</v>
+      </c>
+      <c r="G18" s="12">
         <v>0.75030341756075392</v>
       </c>
-      <c r="H18" s="23" t="s">
+      <c r="H18" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I18" s="24">
+      <c r="I18" s="14">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="J18" s="23" t="s">
+      <c r="J18" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="K18" s="24">
+      <c r="K18" s="14">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="L18" s="24">
+      <c r="L18" s="14">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="M18" s="23" t="s">
+      <c r="M18" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="N18" s="24">
+      <c r="N18" s="14">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="O18" s="25">
+      <c r="O18" s="15">
         <f t="shared" si="4"/>
         <v>23.5</v>
       </c>
-      <c r="Q18" s="33">
+      <c r="Q18" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>42916</v>
-      </c>
-      <c r="R18" s="34">
+        <v>42917</v>
+      </c>
+      <c r="R18" s="24">
         <v>0.76158561431963645</v>
       </c>
-      <c r="S18" s="35">
+      <c r="S18" s="25">
         <f t="shared" si="6"/>
         <v>16.24636333279085</v>
       </c>
-      <c r="T18" s="36">
+      <c r="T18" s="26">
         <f t="shared" si="7"/>
         <v>23.5</v>
       </c>
     </row>
     <row r="19" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="50">
+      <c r="C19" s="36">
         <v>1.5</v>
       </c>
-      <c r="E19" s="20">
+      <c r="E19" s="10">
         <f xml:space="preserve"> IF(H19 = "", "-", MAX(E$4:E18) + 1)</f>
         <v>16</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19" s="11">
         <f t="shared" ca="1" si="8"/>
-        <v>42916</v>
-      </c>
-      <c r="G19" s="22">
+        <v>42917</v>
+      </c>
+      <c r="G19" s="12">
         <v>0.97228990531532211</v>
       </c>
-      <c r="H19" s="23" t="s">
+      <c r="H19" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I19" s="24">
+      <c r="I19" s="14">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="J19" s="23"/>
-      <c r="K19" s="24">
+      <c r="J19" s="13"/>
+      <c r="K19" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L19" s="24">
+      <c r="L19" s="14">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="M19" s="23" t="s">
+      <c r="M19" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="N19" s="24">
+      <c r="N19" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O19" s="25">
+      <c r="O19" s="15">
         <f t="shared" si="4"/>
         <v>19.5</v>
       </c>
-      <c r="Q19" s="33">
+      <c r="Q19" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>42916</v>
-      </c>
-      <c r="R19" s="34">
+        <v>42917</v>
+      </c>
+      <c r="R19" s="24">
         <v>0.9939853582786804</v>
       </c>
-      <c r="S19" s="35">
+      <c r="S19" s="25">
         <f t="shared" si="6"/>
         <v>31.241452267235932</v>
       </c>
-      <c r="T19" s="36">
+      <c r="T19" s="26">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="53">
+      <c r="C20" s="39">
         <v>30</v>
       </c>
-      <c r="E20" s="20">
+      <c r="E20" s="10">
         <f xml:space="preserve"> IF(H20 = "", "-", MAX(E$4:E19) + 1)</f>
         <v>17</v>
       </c>
-      <c r="F20" s="21">
+      <c r="F20" s="11">
         <f t="shared" ca="1" si="8"/>
-        <v>42916</v>
-      </c>
-      <c r="G20" s="22">
+        <v>42917</v>
+      </c>
+      <c r="G20" s="12">
         <v>0.80797685161394928</v>
       </c>
-      <c r="H20" s="23" t="s">
+      <c r="H20" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I20" s="24">
+      <c r="I20" s="14">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="J20" s="23"/>
-      <c r="K20" s="24">
+      <c r="J20" s="13"/>
+      <c r="K20" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L20" s="24">
+      <c r="L20" s="14">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="M20" s="23" t="s">
+      <c r="M20" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="N20" s="24">
+      <c r="N20" s="14">
         <f t="shared" si="3"/>
         <v>3.5</v>
       </c>
-      <c r="O20" s="25">
+      <c r="O20" s="15">
         <f t="shared" si="4"/>
         <v>23</v>
       </c>
-      <c r="Q20" s="33">
+      <c r="Q20" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>42916</v>
-      </c>
-      <c r="R20" s="34">
+        <v>42917</v>
+      </c>
+      <c r="R20" s="24">
         <v>0.81253158104032031</v>
       </c>
-      <c r="S20" s="35">
+      <c r="S20" s="25">
         <f t="shared" si="6"/>
         <v>6.558810373974282</v>
       </c>
-      <c r="T20" s="36">
+      <c r="T20" s="26">
         <f t="shared" si="7"/>
         <v>23</v>
       </c>
     </row>
     <row r="21" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="54">
+      <c r="C21" s="40">
         <v>1</v>
       </c>
-      <c r="E21" s="20">
+      <c r="E21" s="10">
         <f xml:space="preserve"> IF(H21 = "", "-", MAX(E$4:E20) + 1)</f>
         <v>18</v>
       </c>
-      <c r="F21" s="21">
+      <c r="F21" s="11">
         <f t="shared" ca="1" si="8"/>
-        <v>42916</v>
-      </c>
-      <c r="G21" s="22">
+        <v>42917</v>
+      </c>
+      <c r="G21" s="12">
         <v>0.95407588695286316</v>
       </c>
-      <c r="H21" s="23" t="s">
+      <c r="H21" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I21" s="24">
+      <c r="I21" s="14">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="J21" s="23" t="s">
+      <c r="J21" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="K21" s="24">
+      <c r="K21" s="14">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="L21" s="24">
+      <c r="L21" s="14">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="M21" s="23" t="s">
+      <c r="M21" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="N21" s="24">
+      <c r="N21" s="14">
         <f t="shared" si="3"/>
         <v>3.5</v>
       </c>
-      <c r="O21" s="25">
+      <c r="O21" s="15">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="Q21" s="33">
+      <c r="Q21" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>42916</v>
-      </c>
-      <c r="R21" s="34">
+        <v>42917</v>
+      </c>
+      <c r="R21" s="24">
         <v>0.96355489792467475</v>
       </c>
-      <c r="S21" s="35">
+      <c r="S21" s="25">
         <f t="shared" si="6"/>
         <v>13.649775799408683</v>
       </c>
-      <c r="T21" s="36">
+      <c r="T21" s="26">
         <f t="shared" si="7"/>
         <v>25</v>
       </c>
     </row>
     <row r="22" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E22" s="20">
+      <c r="E22" s="10">
         <f xml:space="preserve"> IF(H22 = "", "-", MAX(E$4:E21) + 1)</f>
         <v>19</v>
       </c>
-      <c r="F22" s="21">
+      <c r="F22" s="11">
         <f t="shared" ca="1" si="8"/>
-        <v>42916</v>
-      </c>
-      <c r="G22" s="22">
+        <v>42917</v>
+      </c>
+      <c r="G22" s="12">
         <v>0.86498053943568642</v>
       </c>
-      <c r="H22" s="23" t="s">
+      <c r="H22" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I22" s="24">
+      <c r="I22" s="14">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="J22" s="23"/>
-      <c r="K22" s="24">
+      <c r="J22" s="13"/>
+      <c r="K22" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L22" s="24">
+      <c r="L22" s="14">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="M22" s="23" t="s">
+      <c r="M22" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="N22" s="24">
+      <c r="N22" s="14">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="O22" s="25">
+      <c r="O22" s="15">
         <f t="shared" si="4"/>
         <v>23.5</v>
       </c>
-      <c r="Q22" s="33">
+      <c r="Q22" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>42916</v>
-      </c>
-      <c r="R22" s="34">
+        <v>42917</v>
+      </c>
+      <c r="R22" s="24">
         <v>0.87527305417561962</v>
       </c>
-      <c r="S22" s="35">
+      <c r="S22" s="25">
         <f t="shared" si="6"/>
         <v>14.821221225503809</v>
       </c>
-      <c r="T22" s="36">
+      <c r="T22" s="26">
         <f t="shared" si="7"/>
         <v>23.5</v>
       </c>
     </row>
     <row r="23" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="14"/>
-      <c r="E23" s="20">
+      <c r="C23" s="52"/>
+      <c r="E23" s="10">
         <f xml:space="preserve"> IF(H23 = "", "-", MAX(E$4:E22) + 1)</f>
         <v>20</v>
       </c>
-      <c r="F23" s="21">
+      <c r="F23" s="11">
         <f t="shared" ca="1" si="8"/>
-        <v>42916</v>
-      </c>
-      <c r="G23" s="22">
+        <v>42917</v>
+      </c>
+      <c r="G23" s="12">
         <v>0.91899452978333018</v>
       </c>
-      <c r="H23" s="23" t="s">
+      <c r="H23" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I23" s="24">
+      <c r="I23" s="14">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="J23" s="23"/>
-      <c r="K23" s="24">
+      <c r="J23" s="13"/>
+      <c r="K23" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L23" s="24">
+      <c r="L23" s="14">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="M23" s="23" t="s">
+      <c r="M23" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="N23" s="24">
+      <c r="N23" s="14">
         <f t="shared" si="3"/>
         <v>3.5</v>
       </c>
-      <c r="O23" s="25">
+      <c r="O23" s="15">
         <f t="shared" si="4"/>
         <v>23</v>
       </c>
-      <c r="Q23" s="33">
+      <c r="Q23" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>42916</v>
-      </c>
-      <c r="R23" s="34">
+        <v>42917</v>
+      </c>
+      <c r="R23" s="24">
         <v>0.94139052515744992</v>
       </c>
-      <c r="S23" s="35">
+      <c r="S23" s="25">
         <f t="shared" si="6"/>
         <v>32.250233338732421</v>
       </c>
-      <c r="T23" s="36">
+      <c r="T23" s="26">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="41" t="s">
+      <c r="B24" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="40"/>
-      <c r="E24" s="20">
+      <c r="C24" s="54"/>
+      <c r="E24" s="10">
         <f xml:space="preserve"> IF(H24 = "", "-", MAX(E$4:E23) + 1)</f>
         <v>21</v>
       </c>
-      <c r="F24" s="21">
+      <c r="F24" s="11">
         <f t="shared" ca="1" si="8"/>
-        <v>42916</v>
-      </c>
-      <c r="G24" s="22">
+        <v>42917</v>
+      </c>
+      <c r="G24" s="12">
         <v>0.85801874475077899</v>
       </c>
-      <c r="H24" s="23" t="s">
+      <c r="H24" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="I24" s="24">
+      <c r="I24" s="14">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="J24" s="23" t="s">
+      <c r="J24" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="K24" s="24">
+      <c r="K24" s="14">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="L24" s="24">
+      <c r="L24" s="14">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="M24" s="23" t="s">
+      <c r="M24" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="N24" s="24">
+      <c r="N24" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O24" s="25">
+      <c r="O24" s="15">
         <f t="shared" si="4"/>
         <v>21.5</v>
       </c>
-      <c r="Q24" s="33">
+      <c r="Q24" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>42916</v>
-      </c>
-      <c r="R24" s="34">
+        <v>42917</v>
+      </c>
+      <c r="R24" s="24">
         <v>0.87134492007125286</v>
       </c>
-      <c r="S24" s="35">
+      <c r="S24" s="25">
         <f t="shared" si="6"/>
         <v>19.189692461482366</v>
       </c>
-      <c r="T24" s="36">
+      <c r="T24" s="26">
         <f t="shared" si="7"/>
         <v>21.5</v>
       </c>
     </row>
     <row r="25" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="42" t="s">
+      <c r="B25" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="43">
-        <f>COUNTIF($H$4:$H$43,B25)</f>
+      <c r="C25" s="31">
+        <f t="shared" ref="C25:C32" si="9">COUNTIF($H$4:$H$43,B25)</f>
         <v>1</v>
       </c>
-      <c r="E25" s="20">
+      <c r="E25" s="10">
         <f xml:space="preserve"> IF(H25 = "", "-", MAX(E$4:E24) + 1)</f>
         <v>22</v>
       </c>
-      <c r="F25" s="21">
+      <c r="F25" s="11">
         <f t="shared" ca="1" si="8"/>
-        <v>42916</v>
-      </c>
-      <c r="G25" s="22">
+        <v>42917</v>
+      </c>
+      <c r="G25" s="12">
         <v>0.7502942586910748</v>
       </c>
-      <c r="H25" s="23" t="s">
+      <c r="H25" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I25" s="24">
+      <c r="I25" s="14">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="J25" s="23"/>
-      <c r="K25" s="24">
+      <c r="J25" s="13"/>
+      <c r="K25" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L25" s="24">
+      <c r="L25" s="14">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="M25" s="23" t="s">
+      <c r="M25" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="N25" s="24">
+      <c r="N25" s="14">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="O25" s="25">
+      <c r="O25" s="15">
         <f t="shared" si="4"/>
         <v>21.5</v>
       </c>
-      <c r="Q25" s="33">
+      <c r="Q25" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>42916</v>
-      </c>
-      <c r="R25" s="34">
+        <v>42917</v>
+      </c>
+      <c r="R25" s="24">
         <v>0.75917639833863271</v>
       </c>
-      <c r="S25" s="35">
+      <c r="S25" s="25">
         <f t="shared" si="6"/>
         <v>12.790281092483387</v>
       </c>
-      <c r="T25" s="36">
+      <c r="T25" s="26">
         <f t="shared" si="7"/>
         <v>21.5</v>
       </c>
     </row>
     <row r="26" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="44" t="s">
+      <c r="B26" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="45">
-        <f>COUNTIF($H$4:$H$43,B26)</f>
+      <c r="C26" s="33">
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="E26" s="20">
+      <c r="E26" s="10">
         <f xml:space="preserve"> IF(H26 = "", "-", MAX(E$4:E25) + 1)</f>
         <v>23</v>
       </c>
-      <c r="F26" s="21">
+      <c r="F26" s="11">
         <f t="shared" ca="1" si="8"/>
-        <v>42916</v>
-      </c>
-      <c r="G26" s="22">
+        <v>42917</v>
+      </c>
+      <c r="G26" s="12">
         <v>0.93499422710018942</v>
       </c>
-      <c r="H26" s="23" t="s">
+      <c r="H26" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="I26" s="24">
+      <c r="I26" s="14">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="J26" s="23" t="s">
+      <c r="J26" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="K26" s="24">
+      <c r="K26" s="14">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="L26" s="24">
+      <c r="L26" s="14">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="M26" s="23" t="s">
+      <c r="M26" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="N26" s="24">
+      <c r="N26" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O26" s="25">
+      <c r="O26" s="15">
         <f t="shared" si="4"/>
         <v>17.5</v>
       </c>
-      <c r="Q26" s="33">
+      <c r="Q26" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>42916</v>
-      </c>
-      <c r="R26" s="34">
+        <v>42917</v>
+      </c>
+      <c r="R26" s="24">
         <v>0.94127416324211888</v>
       </c>
-      <c r="S26" s="35">
+      <c r="S26" s="25">
         <f t="shared" si="6"/>
         <v>9.043108044378414</v>
       </c>
-      <c r="T26" s="36">
+      <c r="T26" s="26">
         <f t="shared" si="7"/>
         <v>17.5</v>
       </c>
     </row>
     <row r="27" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="44" t="s">
+      <c r="B27" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="45">
-        <f>COUNTIF($H$4:$H$43,B27)</f>
+      <c r="C27" s="33">
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="E27" s="20">
+      <c r="E27" s="10">
         <f xml:space="preserve"> IF(H27 = "", "-", MAX(E$4:E26) + 1)</f>
         <v>24</v>
       </c>
-      <c r="F27" s="21">
+      <c r="F27" s="11">
         <f t="shared" ca="1" si="8"/>
-        <v>42916</v>
-      </c>
-      <c r="G27" s="22">
+        <v>42917</v>
+      </c>
+      <c r="G27" s="12">
         <v>0.81742898024430055</v>
       </c>
-      <c r="H27" s="23" t="s">
+      <c r="H27" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I27" s="24">
+      <c r="I27" s="14">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="J27" s="23" t="s">
+      <c r="J27" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="K27" s="24">
+      <c r="K27" s="14">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="L27" s="24">
+      <c r="L27" s="14">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="M27" s="23" t="s">
+      <c r="M27" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="N27" s="24">
+      <c r="N27" s="14">
         <f t="shared" si="3"/>
         <v>3.5</v>
       </c>
-      <c r="O27" s="25">
+      <c r="O27" s="15">
         <f t="shared" si="4"/>
         <v>23</v>
       </c>
-      <c r="Q27" s="33">
+      <c r="Q27" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>42916</v>
-      </c>
-      <c r="R27" s="34">
+        <v>42917</v>
+      </c>
+      <c r="R27" s="24">
         <v>0.823161929607373</v>
       </c>
-      <c r="S27" s="35">
+      <c r="S27" s="25">
         <f t="shared" si="6"/>
         <v>8.2554470828243254</v>
       </c>
-      <c r="T27" s="36">
+      <c r="T27" s="26">
         <f t="shared" si="7"/>
         <v>23</v>
       </c>
     </row>
     <row r="28" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="44" t="s">
+      <c r="B28" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="45">
-        <f>COUNTIF($H$4:$H$43,B28)</f>
+      <c r="C28" s="33">
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="E28" s="20">
+      <c r="E28" s="10">
         <f xml:space="preserve"> IF(H28 = "", "-", MAX(E$4:E27) + 1)</f>
         <v>25</v>
       </c>
-      <c r="F28" s="21">
+      <c r="F28" s="11">
         <f t="shared" ca="1" si="8"/>
-        <v>42916</v>
-      </c>
-      <c r="G28" s="22">
+        <v>42917</v>
+      </c>
+      <c r="G28" s="12">
         <v>0.76970257681309739</v>
       </c>
-      <c r="H28" s="23" t="s">
+      <c r="H28" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="I28" s="24">
+      <c r="I28" s="14">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="J28" s="23" t="s">
+      <c r="J28" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="K28" s="24">
+      <c r="K28" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L28" s="24">
+      <c r="L28" s="14">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="M28" s="23" t="s">
+      <c r="M28" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="N28" s="24">
+      <c r="N28" s="14">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="O28" s="25">
+      <c r="O28" s="15">
         <f t="shared" si="4"/>
         <v>23.5</v>
       </c>
-      <c r="Q28" s="33">
+      <c r="Q28" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>42916</v>
-      </c>
-      <c r="R28" s="34">
+        <v>42917</v>
+      </c>
+      <c r="R28" s="24">
         <v>0.78136285758623625</v>
       </c>
-      <c r="S28" s="35">
+      <c r="S28" s="25">
         <f t="shared" si="6"/>
         <v>16.790804313319949</v>
       </c>
-      <c r="T28" s="36">
+      <c r="T28" s="26">
         <f t="shared" si="7"/>
         <v>23.5</v>
       </c>
     </row>
     <row r="29" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="44" t="s">
+      <c r="B29" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="45">
-        <f>COUNTIF($H$4:$H$43,B29)</f>
+      <c r="C29" s="33">
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="E29" s="20">
+      <c r="E29" s="10">
         <f xml:space="preserve"> IF(H29 = "", "-", MAX(E$4:E28) + 1)</f>
         <v>26</v>
       </c>
-      <c r="F29" s="21">
+      <c r="F29" s="11">
         <f t="shared" ca="1" si="8"/>
-        <v>42916</v>
-      </c>
-      <c r="G29" s="22">
+        <v>42917</v>
+      </c>
+      <c r="G29" s="12">
         <v>0.85356623188339742</v>
       </c>
-      <c r="H29" s="23" t="s">
+      <c r="H29" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="24">
+      <c r="I29" s="14">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="J29" s="23" t="s">
+      <c r="J29" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="K29" s="24">
+      <c r="K29" s="14">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="L29" s="24">
+      <c r="L29" s="14">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="M29" s="23" t="s">
+      <c r="M29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="N29" s="24">
+      <c r="N29" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O29" s="25">
+      <c r="O29" s="15">
         <f t="shared" si="4"/>
         <v>21.5</v>
       </c>
-      <c r="Q29" s="33">
+      <c r="Q29" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>42916</v>
-      </c>
-      <c r="R29" s="34">
+        <v>42917</v>
+      </c>
+      <c r="R29" s="24">
         <v>0.86595061132583795</v>
       </c>
-      <c r="S29" s="35">
+      <c r="S29" s="25">
         <f t="shared" si="6"/>
         <v>17.833506397114363</v>
       </c>
-      <c r="T29" s="36">
+      <c r="T29" s="26">
         <f t="shared" si="7"/>
         <v>21.5</v>
       </c>
     </row>
     <row r="30" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="44" t="s">
+      <c r="B30" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="45">
-        <f>COUNTIF($H$4:$H$43,B30)</f>
+      <c r="C30" s="33">
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="E30" s="20" t="str">
+      <c r="E30" s="10" t="str">
         <f xml:space="preserve"> IF(H30 = "", "-", MAX(E$4:E29) + 1)</f>
         <v>-</v>
       </c>
-      <c r="F30" s="21"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="24"/>
-      <c r="O30" s="24"/>
-      <c r="Q30" s="33"/>
-      <c r="R30" s="34"/>
-      <c r="S30" s="37"/>
-      <c r="T30" s="37"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="Q30" s="23"/>
+      <c r="R30" s="24"/>
+      <c r="S30" s="27"/>
+      <c r="T30" s="27"/>
     </row>
     <row r="31" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="44" t="s">
+      <c r="B31" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="45">
-        <f>COUNTIF($H$4:$H$43,B31)</f>
+      <c r="C31" s="33">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="E31" s="20" t="str">
+      <c r="E31" s="10" t="str">
         <f xml:space="preserve"> IF(H31 = "", "-", MAX(E$4:E30) + 1)</f>
         <v>-</v>
       </c>
-      <c r="F31" s="21"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="23"/>
-      <c r="N31" s="24"/>
-      <c r="O31" s="24"/>
-      <c r="Q31" s="33"/>
-      <c r="R31" s="34"/>
-      <c r="S31" s="37"/>
-      <c r="T31" s="37"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="Q31" s="23"/>
+      <c r="R31" s="24"/>
+      <c r="S31" s="27"/>
+      <c r="T31" s="27"/>
     </row>
     <row r="32" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="46" t="s">
+      <c r="B32" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="47">
-        <f>COUNTIF($H$4:$H$43,B32)</f>
+      <c r="C32" s="35">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="E32" s="20" t="str">
+      <c r="E32" s="10" t="str">
         <f xml:space="preserve"> IF(H32 = "", "-", MAX(E$4:E31) + 1)</f>
         <v>-</v>
       </c>
-      <c r="F32" s="21"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="23"/>
-      <c r="N32" s="24"/>
-      <c r="O32" s="24"/>
-      <c r="Q32" s="33"/>
-      <c r="R32" s="34"/>
-      <c r="S32" s="37"/>
-      <c r="T32" s="37"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="Q32" s="23"/>
+      <c r="R32" s="24"/>
+      <c r="S32" s="27"/>
+      <c r="T32" s="27"/>
     </row>
     <row r="33" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="48" t="s">
+      <c r="B33" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="49"/>
-      <c r="E33" s="20" t="str">
+      <c r="C33" s="42"/>
+      <c r="E33" s="10" t="str">
         <f xml:space="preserve"> IF(H33 = "", "-", MAX(E$4:E32) + 1)</f>
         <v>-</v>
       </c>
-      <c r="F33" s="21"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="23"/>
-      <c r="N33" s="24"/>
-      <c r="O33" s="24"/>
-      <c r="Q33" s="33"/>
-      <c r="R33" s="34"/>
-      <c r="S33" s="37"/>
-      <c r="T33" s="37"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="14"/>
+      <c r="Q33" s="23"/>
+      <c r="R33" s="24"/>
+      <c r="S33" s="27"/>
+      <c r="T33" s="27"/>
     </row>
     <row r="34" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="42" t="s">
+      <c r="B34" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="43">
+      <c r="C34" s="31">
         <f>COUNTIF($M$4:$M$43,B34)</f>
         <v>4</v>
       </c>
-      <c r="E34" s="20" t="str">
+      <c r="E34" s="10" t="str">
         <f xml:space="preserve"> IF(H34 = "", "-", MAX(E$4:E33) + 1)</f>
         <v>-</v>
       </c>
-      <c r="F34" s="21"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="23"/>
-      <c r="N34" s="24"/>
-      <c r="O34" s="24"/>
-      <c r="Q34" s="33"/>
-      <c r="R34" s="34"/>
-      <c r="S34" s="37"/>
-      <c r="T34" s="37"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
+      <c r="Q34" s="23"/>
+      <c r="R34" s="24"/>
+      <c r="S34" s="27"/>
+      <c r="T34" s="27"/>
     </row>
     <row r="35" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="44" t="s">
+      <c r="B35" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="45">
+      <c r="C35" s="33">
         <f>COUNTIF($M$4:$M$43,B35)</f>
         <v>7</v>
       </c>
-      <c r="E35" s="20" t="str">
+      <c r="E35" s="10" t="str">
         <f xml:space="preserve"> IF(H35 = "", "-", MAX(E$4:E34) + 1)</f>
         <v>-</v>
       </c>
-      <c r="F35" s="21"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="24"/>
-      <c r="M35" s="23"/>
-      <c r="N35" s="24"/>
-      <c r="O35" s="24"/>
-      <c r="Q35" s="33"/>
-      <c r="R35" s="34"/>
-      <c r="S35" s="37"/>
-      <c r="T35" s="37"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="14"/>
+      <c r="Q35" s="23"/>
+      <c r="R35" s="24"/>
+      <c r="S35" s="27"/>
+      <c r="T35" s="27"/>
     </row>
     <row r="36" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="44" t="s">
+      <c r="B36" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="45">
+      <c r="C36" s="33">
         <f>COUNTIF($M$4:$M$43,B36)</f>
         <v>7</v>
       </c>
-      <c r="E36" s="20" t="str">
+      <c r="E36" s="10" t="str">
         <f xml:space="preserve"> IF(H36 = "", "-", MAX(E$4:E35) + 1)</f>
         <v>-</v>
       </c>
-      <c r="F36" s="21"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="24"/>
-      <c r="J36" s="23"/>
-      <c r="K36" s="24"/>
-      <c r="L36" s="24"/>
-      <c r="M36" s="23"/>
-      <c r="N36" s="24"/>
-      <c r="O36" s="24"/>
-      <c r="Q36" s="33"/>
-      <c r="R36" s="34"/>
-      <c r="S36" s="37"/>
-      <c r="T36" s="37"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
+      <c r="Q36" s="23"/>
+      <c r="R36" s="24"/>
+      <c r="S36" s="27"/>
+      <c r="T36" s="27"/>
     </row>
     <row r="37" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="46" t="s">
+      <c r="B37" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="47">
+      <c r="C37" s="35">
         <f>COUNTIF($M$4:$M$43,B37)</f>
         <v>3</v>
       </c>
-      <c r="E37" s="20" t="str">
+      <c r="E37" s="10" t="str">
         <f xml:space="preserve"> IF(H37 = "", "-", MAX(E$4:E36) + 1)</f>
         <v>-</v>
       </c>
-      <c r="F37" s="21"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="23"/>
-      <c r="K37" s="24"/>
-      <c r="L37" s="24"/>
-      <c r="M37" s="23"/>
-      <c r="N37" s="24"/>
-      <c r="O37" s="24"/>
-      <c r="Q37" s="33"/>
-      <c r="R37" s="34"/>
-      <c r="S37" s="37"/>
-      <c r="T37" s="37"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="14"/>
+      <c r="Q37" s="23"/>
+      <c r="R37" s="24"/>
+      <c r="S37" s="27"/>
+      <c r="T37" s="27"/>
     </row>
     <row r="38" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E38" s="20" t="str">
+      <c r="E38" s="10" t="str">
         <f xml:space="preserve"> IF(H38 = "", "-", MAX(E$4:E37) + 1)</f>
         <v>-</v>
       </c>
-      <c r="F38" s="21"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="23"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="24"/>
-      <c r="M38" s="23"/>
-      <c r="N38" s="24"/>
-      <c r="O38" s="24"/>
-      <c r="Q38" s="33"/>
-      <c r="R38" s="34"/>
-      <c r="S38" s="37"/>
-      <c r="T38" s="37"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="Q38" s="23"/>
+      <c r="R38" s="24"/>
+      <c r="S38" s="27"/>
+      <c r="T38" s="27"/>
     </row>
     <row r="39" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E39" s="20" t="str">
+      <c r="E39" s="10" t="str">
         <f xml:space="preserve"> IF(H39 = "", "-", MAX(E$4:E38) + 1)</f>
         <v>-</v>
       </c>
-      <c r="F39" s="21"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="23"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="24"/>
-      <c r="M39" s="23"/>
-      <c r="N39" s="24"/>
-      <c r="O39" s="24"/>
-      <c r="Q39" s="33"/>
-      <c r="R39" s="34"/>
-      <c r="S39" s="37"/>
-      <c r="T39" s="37"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="13"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
+      <c r="Q39" s="23"/>
+      <c r="R39" s="24"/>
+      <c r="S39" s="27"/>
+      <c r="T39" s="27"/>
     </row>
     <row r="40" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E40" s="20" t="str">
+      <c r="E40" s="10" t="str">
         <f xml:space="preserve"> IF(H40 = "", "-", MAX(E$4:E39) + 1)</f>
         <v>-</v>
       </c>
-      <c r="F40" s="21"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="23"/>
-      <c r="K40" s="24"/>
-      <c r="L40" s="24"/>
-      <c r="M40" s="23"/>
-      <c r="N40" s="24"/>
-      <c r="O40" s="24"/>
-      <c r="Q40" s="33"/>
-      <c r="R40" s="34"/>
-      <c r="S40" s="37"/>
-      <c r="T40" s="37"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="13"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="14"/>
+      <c r="Q40" s="23"/>
+      <c r="R40" s="24"/>
+      <c r="S40" s="27"/>
+      <c r="T40" s="27"/>
     </row>
     <row r="41" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E41" s="20" t="str">
+      <c r="E41" s="10" t="str">
         <f xml:space="preserve"> IF(H41 = "", "-", MAX(E$4:E40) + 1)</f>
         <v>-</v>
       </c>
-      <c r="F41" s="21"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="24"/>
-      <c r="J41" s="23"/>
-      <c r="K41" s="24"/>
-      <c r="L41" s="24"/>
-      <c r="M41" s="23"/>
-      <c r="N41" s="24"/>
-      <c r="O41" s="24"/>
-      <c r="Q41" s="33"/>
-      <c r="R41" s="34"/>
-      <c r="S41" s="37"/>
-      <c r="T41" s="37"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="14"/>
+      <c r="O41" s="14"/>
+      <c r="Q41" s="23"/>
+      <c r="R41" s="24"/>
+      <c r="S41" s="27"/>
+      <c r="T41" s="27"/>
     </row>
     <row r="42" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E42" s="20" t="str">
+      <c r="E42" s="10" t="str">
         <f xml:space="preserve"> IF(H42 = "", "-", MAX(E$4:E41) + 1)</f>
         <v>-</v>
       </c>
-      <c r="F42" s="21"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="24"/>
-      <c r="J42" s="23"/>
-      <c r="K42" s="24"/>
-      <c r="L42" s="24"/>
-      <c r="M42" s="23"/>
-      <c r="N42" s="24"/>
-      <c r="O42" s="24"/>
-      <c r="Q42" s="33"/>
-      <c r="R42" s="34"/>
-      <c r="S42" s="37"/>
-      <c r="T42" s="37"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="13"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="14"/>
+      <c r="Q42" s="23"/>
+      <c r="R42" s="24"/>
+      <c r="S42" s="27"/>
+      <c r="T42" s="27"/>
     </row>
     <row r="43" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E43" s="20" t="str">
+      <c r="E43" s="10" t="str">
         <f xml:space="preserve"> IF(H43 = "", "-", MAX(E$4:E42) + 1)</f>
         <v>-</v>
       </c>
-      <c r="F43" s="21"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="24"/>
-      <c r="J43" s="23"/>
-      <c r="K43" s="24"/>
-      <c r="L43" s="24"/>
-      <c r="M43" s="23"/>
-      <c r="N43" s="24"/>
-      <c r="O43" s="24"/>
-      <c r="Q43" s="33"/>
-      <c r="R43" s="34"/>
-      <c r="S43" s="37"/>
-      <c r="T43" s="37"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="13"/>
+      <c r="N43" s="14"/>
+      <c r="O43" s="14"/>
+      <c r="Q43" s="23"/>
+      <c r="R43" s="24"/>
+      <c r="S43" s="27"/>
+      <c r="T43" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="7">
